--- a/RCC Testing Documentation.xlsx
+++ b/RCC Testing Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinChilds\Documents\lesson-plans\11-1-21JWA\week9\4-thursday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B11727-8CF1-4FD8-A8B8-8D3B9EF0ACCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB393169-908B-4C8D-8241-EB564A501A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Document" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="479">
   <si>
     <t>Use Case ID</t>
   </si>
@@ -702,6 +702,12 @@
     <t>A user is logged in and they are on a page showing the header. They click on the cart button and are redirected to the cart page</t>
   </si>
   <si>
+    <t>1. a user is on the login page
+2. a user inputs valid credentials
+3. A user is on the main page
+4. A user clicks on the cart button</t>
+  </si>
+  <si>
     <t>UC-Header-504</t>
   </si>
   <si>
@@ -844,6 +850,20 @@
     <t>For item already in cart clicking the spinner down to decrease cart item or manually keying in a negative value can not make cart item quantity go below 1.</t>
   </si>
   <si>
+    <t>1. A user is on the login page
+2. A user inputs valid credentials
+3. A user is on the main page
+4. A user clicks on a product
+5. A user is on the product page
+6. A user clicks on the add to cart button
+7. A user clicks the go to cart button
+8. a user is on the cart page
+9. a user inputs a negative number in the quantity</t>
+  </si>
+  <si>
+    <t>the quantity value should stay as 1</t>
+  </si>
+  <si>
     <t>UC-Cart-602</t>
   </si>
   <si>
@@ -856,6 +876,20 @@
     <t>For item already in cart clicking the spinner up to increase the cart item quantity or manually keying in a value greater than the max stock value never results in the cart item quantity exceeding max stock quantity.</t>
   </si>
   <si>
+    <t>1. A user is on the login page
+2. A user inputs valid credentials
+3. A user is on the main page
+4. A user clicks on a product
+5. A user is on the product page
+6. A user clicks on the add to cart button
+7. A user clicks the go to cart button
+8. a user is on the cart page
+9. a user inputs a number above the product's stock in the quantity</t>
+  </si>
+  <si>
+    <t>The quantity value should stay as 1</t>
+  </si>
+  <si>
     <t>UC-Cart-603</t>
   </si>
   <si>
@@ -866,6 +900,17 @@
   </si>
   <si>
     <t>Keying in non-numbers and special characters is not allowed in the cart item quantity field and these characters do not show up in the field.</t>
+  </si>
+  <si>
+    <t>1. A user is on the login page
+2. A user inputs valid credentials
+3. A user is on the main page
+4. A user clicks on a product
+5. A user is on the product page
+6. A user clicks on the add to cart button
+7. A user clicks the go to cart button
+8. a user is on the cart page
+9. a user inputs a non-number chracter into quantity</t>
   </si>
   <si>
     <t>UC-Cart-604</t>
@@ -2038,7 +2083,9 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="75" customHeight="1"/>
   <cols>
@@ -2754,82 +2801,88 @@
       <c r="D39" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="E39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>159</v>
@@ -2837,62 +2890,62 @@
     </row>
     <row r="44" spans="1:8" ht="75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="11" customFormat="1" ht="75" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="11" customFormat="1" ht="75" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="75" customHeight="1">
@@ -2907,527 +2960,545 @@
     </row>
     <row r="48" spans="1:8" ht="75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="9" customFormat="1" ht="75" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="75" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1" ht="75" customHeight="1"/>
     <row r="56" spans="1:6" ht="75" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="75" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="75" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="8" customFormat="1" ht="75" customHeight="1"/>
     <row r="61" spans="1:6" ht="75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="75" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="75" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="75" customHeight="1">
       <c r="A64" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="75" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="75" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="8" customFormat="1" ht="75" customHeight="1"/>
     <row r="70" spans="1:6" ht="75" customHeight="1">
       <c r="A70" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="75" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="75" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="75" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="75" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="75" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="75" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="75" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3444,9 +3515,7 @@
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -3458,10 +3527,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5">
       <c r="A1" s="13" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -3472,105 +3541,105 @@
     </row>
     <row r="2" spans="1:4" ht="50.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="50.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="50.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="50.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>49</v>
@@ -3579,12 +3648,12 @@
         <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="50.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>55</v>
@@ -3593,12 +3662,12 @@
         <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="50.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>61</v>
@@ -3607,12 +3676,12 @@
         <v>62</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="50.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>67</v>
@@ -3621,12 +3690,12 @@
         <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>73</v>
@@ -3635,12 +3704,12 @@
         <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="50.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>76</v>
@@ -3649,12 +3718,12 @@
         <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>81</v>
@@ -3663,12 +3732,12 @@
         <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="50.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>86</v>
@@ -3677,12 +3746,12 @@
         <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>91</v>
@@ -3691,12 +3760,12 @@
         <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="50.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>96</v>
@@ -3705,12 +3774,12 @@
         <v>97</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="50.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>102</v>
@@ -3719,12 +3788,12 @@
         <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>108</v>
@@ -3733,12 +3802,12 @@
         <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>114</v>
@@ -3747,12 +3816,12 @@
         <v>115</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="50.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>119</v>
@@ -3761,12 +3830,12 @@
         <v>120</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="50.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>125</v>
@@ -3775,12 +3844,12 @@
         <v>126</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="50.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>131</v>
@@ -3789,12 +3858,12 @@
         <v>132</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="50.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>137</v>
@@ -3803,12 +3872,12 @@
         <v>138</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="50.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>143</v>
@@ -3817,12 +3886,12 @@
         <v>144</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="50.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>149</v>
@@ -3831,12 +3900,12 @@
         <v>150</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="50.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>155</v>
@@ -3845,12 +3914,12 @@
         <v>156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="50.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>161</v>
@@ -3859,12 +3928,12 @@
         <v>162</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="50.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>167</v>
@@ -3873,12 +3942,12 @@
         <v>168</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="50.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>172</v>
@@ -3887,12 +3956,12 @@
         <v>173</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="50.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>178</v>
@@ -3901,12 +3970,12 @@
         <v>179</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="50.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>184</v>
@@ -3915,12 +3984,12 @@
         <v>185</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="50.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>190</v>
@@ -3929,12 +3998,12 @@
         <v>191</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="50.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>196</v>
@@ -3943,480 +4012,480 @@
         <v>197</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="50.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="50.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="50.25" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="50.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="50.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="50.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="50.25" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="50.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="50.25" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="50.25" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="50.25" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="50.25" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="50.25" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="50.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="50.25" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="50.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="50.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="50.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="50.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="50.25" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="50.25" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="50.25" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="50.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="50.25" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="50.25" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="50.25" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="50.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="50.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="50.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="50.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="50.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="50.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="50.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="50.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4451,24 +4520,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="B1" s="6" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4477,19 +4546,19 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>

--- a/RCC Testing Documentation.xlsx
+++ b/RCC Testing Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinChilds\Documents\lesson-plans\11-1-21JWA\week9\4-thursday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB393169-908B-4C8D-8241-EB564A501A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB53984-0773-4E35-AE6A-8D6C1A52EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Document" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="489">
   <si>
     <t>Use Case ID</t>
   </si>
@@ -1297,6 +1297,25 @@
 5. Press update button</t>
   </si>
   <si>
+    <t>UC-Edit Product-809</t>
+  </si>
+  <si>
+    <t>User fails to change stock when editing a product</t>
+  </si>
+  <si>
+    <t>TC-Edit Product-9</t>
+  </si>
+  <si>
+    <t>User should be at the main page logged in as an Admin. User clicks on a product. User should be on the specific product page. User clicks the edit button. User empties the stock value and tries updateing. User should be prompted with an error message.</t>
+  </si>
+  <si>
+    <t>1. Navigate to main page while logged in as a Admin
+2. Click on a product in the main page
+3. Click on the edit button in the product page
+4. Empty the product stock field with a higher price then the price
+5. Press update button</t>
+  </si>
+  <si>
     <t>UC-Add New Product-901</t>
   </si>
   <si>
@@ -1455,6 +1474,25 @@
   </si>
   <si>
     <t>User should be redirected to the product specific page, product has a sale</t>
+  </si>
+  <si>
+    <t>UC-Add New Product-909</t>
+  </si>
+  <si>
+    <t>User fails to make product with empty stock field</t>
+  </si>
+  <si>
+    <t>TC-Add New Product-9</t>
+  </si>
+  <si>
+    <t>User should be at the main page logged in as an Admin. User clicks on the add product button in the main page. User fills out the name, description, price, sales price, and uploads photo and presses submit. User should be given an error to fill out the stock field</t>
+  </si>
+  <si>
+    <t>1. Navigate to main page while logged in as a Admin
+2. Click add new product in the main page
+3. Fill out name, description, price, sale price
+4. Uploads a image
+5. Pressed submit button</t>
   </si>
   <si>
     <t>Business</t>
@@ -1825,7 +1863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1859,9 +1897,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2081,7 +2116,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
@@ -3340,27 +3375,27 @@
         <v>340</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="8" customFormat="1" ht="75" customHeight="1"/>
-    <row r="70" spans="1:6" ht="75" customHeight="1">
-      <c r="A70" s="5" t="s">
+    <row r="69" spans="1:6" ht="75" customHeight="1">
+      <c r="A69" t="s">
         <v>346</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>340</v>
       </c>
     </row>
+    <row r="70" spans="1:6" s="8" customFormat="1" ht="75" customHeight="1"/>
     <row r="71" spans="1:6" ht="75" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>351</v>
@@ -3458,47 +3493,87 @@
         <v>375</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="75" customHeight="1">
       <c r="A76" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="75" customHeight="1">
       <c r="A77" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="F77" s="5" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="75" customHeight="1">
+      <c r="A78" s="5" t="s">
         <v>388</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="75" customHeight="1">
+      <c r="A79" t="s">
+        <v>394</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C79" t="s">
+        <v>396</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3527,10 +3602,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5">
       <c r="A1" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -3541,105 +3616,105 @@
     </row>
     <row r="2" spans="1:4" ht="50.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="50.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="50.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="50.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>49</v>
@@ -3648,12 +3723,12 @@
         <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="50.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>55</v>
@@ -3662,12 +3737,12 @@
         <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="50.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>61</v>
@@ -3676,12 +3751,12 @@
         <v>62</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="50.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>67</v>
@@ -3690,12 +3765,12 @@
         <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>73</v>
@@ -3704,12 +3779,12 @@
         <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="50.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>76</v>
@@ -3718,12 +3793,12 @@
         <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>81</v>
@@ -3732,12 +3807,12 @@
         <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="50.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>86</v>
@@ -3746,12 +3821,12 @@
         <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>91</v>
@@ -3760,12 +3835,12 @@
         <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="50.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>96</v>
@@ -3774,12 +3849,12 @@
         <v>97</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="50.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>102</v>
@@ -3788,12 +3863,12 @@
         <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>108</v>
@@ -3802,12 +3877,12 @@
         <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>114</v>
@@ -3816,12 +3891,12 @@
         <v>115</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="50.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>119</v>
@@ -3830,12 +3905,12 @@
         <v>120</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="50.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>125</v>
@@ -3844,12 +3919,12 @@
         <v>126</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="50.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>131</v>
@@ -3858,12 +3933,12 @@
         <v>132</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="50.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>137</v>
@@ -3872,12 +3947,12 @@
         <v>138</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="50.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>143</v>
@@ -3886,12 +3961,12 @@
         <v>144</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="50.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>149</v>
@@ -3900,12 +3975,12 @@
         <v>150</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="50.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>155</v>
@@ -3914,12 +3989,12 @@
         <v>156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="50.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>161</v>
@@ -3928,12 +4003,12 @@
         <v>162</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="50.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>167</v>
@@ -3942,12 +4017,12 @@
         <v>168</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="50.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>172</v>
@@ -3956,12 +4031,12 @@
         <v>173</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="50.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>178</v>
@@ -3970,12 +4045,12 @@
         <v>179</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="50.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>184</v>
@@ -3984,12 +4059,12 @@
         <v>185</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="50.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>190</v>
@@ -3998,12 +4073,12 @@
         <v>191</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="50.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>196</v>
@@ -4012,12 +4087,12 @@
         <v>197</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="50.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>201</v>
@@ -4026,12 +4101,12 @@
         <v>202</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="50.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>207</v>
@@ -4040,12 +4115,12 @@
         <v>208</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="50.25" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>212</v>
@@ -4054,12 +4129,12 @@
         <v>213</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="50.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>218</v>
@@ -4068,12 +4143,12 @@
         <v>219</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="50.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>223</v>
@@ -4082,12 +4157,12 @@
         <v>224</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="50.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>229</v>
@@ -4096,12 +4171,12 @@
         <v>230</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="50.25" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>235</v>
@@ -4110,12 +4185,12 @@
         <v>236</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="50.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>240</v>
@@ -4124,26 +4199,26 @@
         <v>241</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="50.25" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B44" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="5" t="s">
         <v>247</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="50.25" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>252</v>
@@ -4152,12 +4227,12 @@
         <v>253</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="50.25" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>257</v>
@@ -4166,12 +4241,12 @@
         <v>258</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="50.25" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>263</v>
@@ -4180,12 +4255,12 @@
         <v>264</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="50.25" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>269</v>
@@ -4194,12 +4269,12 @@
         <v>270</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="50.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>275</v>
@@ -4208,12 +4283,12 @@
         <v>276</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="50.25" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>281</v>
@@ -4222,12 +4297,12 @@
         <v>282</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="50.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>287</v>
@@ -4236,12 +4311,12 @@
         <v>288</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="50.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>293</v>
@@ -4250,12 +4325,12 @@
         <v>294</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="50.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>299</v>
@@ -4266,7 +4341,7 @@
     </row>
     <row r="54" spans="1:4" ht="50.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>304</v>
@@ -4275,12 +4350,12 @@
         <v>305</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="50.25" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>310</v>
@@ -4289,12 +4364,12 @@
         <v>311</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="50.25" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>316</v>
@@ -4303,12 +4378,12 @@
         <v>317</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="50.25" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>321</v>
@@ -4317,12 +4392,12 @@
         <v>322</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="50.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>326</v>
@@ -4331,12 +4406,12 @@
         <v>327</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="50.25" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>331</v>
@@ -4345,12 +4420,12 @@
         <v>332</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="50.25" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>336</v>
@@ -4359,12 +4434,12 @@
         <v>337</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="50.25" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>342</v>
@@ -4373,119 +4448,119 @@
         <v>343</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="50.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="50.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="50.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="50.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="50.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="50.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="50.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="50.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4520,24 +4595,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="B1" s="6" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4546,19 +4621,19 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>

--- a/RCC Testing Documentation.xlsx
+++ b/RCC Testing Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinChilds\Documents\lesson-plans\11-1-21JWA\week9\4-thursday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB53984-0773-4E35-AE6A-8D6C1A52EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8990DD-D4DD-451B-BD30-859B1B2E5F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Document" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="492">
   <si>
     <t>Use Case ID</t>
   </si>
@@ -1281,7 +1281,7 @@
     <t>UC-Edit Product-808</t>
   </si>
   <si>
-    <t>User fails to change sales price when editing a product-</t>
+    <t>User fails to change sales price when editing a product</t>
   </si>
   <si>
     <t>TC-Edit Product-8</t>
@@ -1708,6 +1708,9 @@
     <t>BR-60</t>
   </si>
   <si>
+    <t>User fails to change sales price when editing a product-</t>
+  </si>
+  <si>
     <t>BR-61</t>
   </si>
   <si>
@@ -1730,6 +1733,12 @@
   </si>
   <si>
     <t>BR-68</t>
+  </si>
+  <si>
+    <t>BR-69</t>
+  </si>
+  <si>
+    <t>BR-70</t>
   </si>
   <si>
     <t>Resolved Issue</t>
@@ -2118,8 +2127,8 @@
   </sheetPr>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="75" customHeight="1"/>
@@ -3588,9 +3597,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -3600,7 +3611,7 @@
     <col min="4" max="4" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="50.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>399</v>
       </c>
@@ -4338,6 +4349,9 @@
       <c r="C53" s="5" t="s">
         <v>300</v>
       </c>
+      <c r="D53" s="5" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="50.25" customHeight="1">
       <c r="A54" s="3" t="s">
@@ -4442,7 +4456,7 @@
         <v>469</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>342</v>
+        <v>470</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>343</v>
@@ -4453,13 +4467,13 @@
     </row>
     <row r="62" spans="1:4" ht="50.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>403</v>
@@ -4467,13 +4481,13 @@
     </row>
     <row r="63" spans="1:4" ht="50.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>403</v>
@@ -4481,85 +4495,114 @@
     </row>
     <row r="64" spans="1:4" ht="50.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="D65" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="D66" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="D67" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="D68" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="D69" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4576,7 +4619,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4595,24 +4638,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="B1" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4621,19 +4664,19 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>
